--- a/src/main/webapp/QuestionSample.xlsx
+++ b/src/main/webapp/QuestionSample.xlsx
@@ -120,7 +120,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>RAVESH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+To distinguish same type of questions in one subject category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,30 +189,6 @@
           </rPr>
           <t xml:space="preserve">
 PassageId to be used to link questions for this passage</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RAVESH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-is this a graph based question?</t>
         </r>
       </text>
     </comment>
@@ -212,11 +212,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-How many questions are based on this paragraph</t>
+is this a graph based question?</t>
         </r>
       </text>
     </comment>
     <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>RAVESH:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+How many questions are based on this paragraph</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>Subject</t>
   </si>
@@ -380,6 +404,15 @@
   </si>
   <si>
     <t>Sample Question 1</t>
+  </si>
+  <si>
+    <t>Question SubType</t>
+  </si>
+  <si>
+    <t>TYPE_001</t>
+  </si>
+  <si>
+    <t>TYPE_002</t>
   </si>
 </sst>
 </file>
@@ -753,37 +786,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,73 +830,76 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -877,67 +913,70 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
         <v>5</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>60</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -951,37 +990,39 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
         <v>5</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>60</v>
       </c>
-      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -992,8 +1033,9 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1020,8 +1062,9 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1048,8 +1091,9 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1076,8 +1120,9 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1104,8 +1149,9 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1132,8 +1178,9 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1160,10 +1207,11 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T2 R2 V2 X2 Z2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="U2 S2 W2 Y2 AA2">
       <formula1>"CORRECT,INCORRECT"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/webapp/QuestionSample.xlsx
+++ b/src/main/webapp/QuestionSample.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Question_Bank" sheetId="1" r:id="rId1"/>
     <sheet name="Passage 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -140,7 +140,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-To distinguish same type of questions in one subject category</t>
+Question Sub Type to distinguish same type of questions</t>
         </r>
       </text>
     </comment>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="133">
   <si>
     <t>Subject</t>
   </si>
@@ -406,13 +406,268 @@
     <t>Sample Question 1</t>
   </si>
   <si>
+    <t xml:space="preserve">HCF </t>
+  </si>
+  <si>
+    <t>FIB</t>
+  </si>
+  <si>
+    <t>LCM of a fraction is ___?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greatest Common Divisor of fraction is </t>
+  </si>
+  <si>
+    <t>LCM of Fractions can be an integer value if and only if______?</t>
+  </si>
+  <si>
+    <t>GCD of Fractions can only be a a fraction because _____?</t>
+  </si>
+  <si>
+    <t>An Integer</t>
+  </si>
+  <si>
+    <t>A Fraction</t>
+  </si>
+  <si>
+    <t>Could be an Integer OR a Fraction</t>
+  </si>
+  <si>
+    <t>Can not be determined</t>
+  </si>
+  <si>
+    <t>LCM Of the numerators is 1</t>
+  </si>
+  <si>
+    <t>LCM Of Denominators is 1</t>
+  </si>
+  <si>
+    <t>HCF/GCD Of the numerators is 1</t>
+  </si>
+  <si>
+    <t>GCD/HCF Of Denominators is 1</t>
+  </si>
+  <si>
+    <t>LCM Of the numerators is always greater than unity</t>
+  </si>
+  <si>
+    <t>LCM Of Denominators is always greater than unity</t>
+  </si>
+  <si>
+    <t>HCF/GCD Of the numerators is always greater than unity</t>
+  </si>
+  <si>
+    <t>HCF/GCD Of Denominators is always greater than unity</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  4, is divisible by 11 ,22 ,28 ,37</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  3, is divisible by 9 ,15 ,30 ,30</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  9, is divisible by 9 ,10 ,29 ,31</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  4, is divisible by 9 ,14 ,26 ,33</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  5, is divisible by 9 ,18 ,28 ,37</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  5, is divisible by 10 ,20 ,29 ,34</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  9, is divisible by 9 ,23 ,29 ,31</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  3, is divisible by 10 ,19 ,28 ,32</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  6, is divisible by 11 ,24 ,29 ,36</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  5, is divisible by 10 ,14 ,30 ,32</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  6, is divisible by 10 ,10 ,30 ,30</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  2, is divisible by 10 ,12 ,30 ,33</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  7, is divisible by 10 ,13 ,29 ,36</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  5, is divisible by 11 ,23 ,28 ,35</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  2, is divisible by 9 ,16 ,30 ,37</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  8, is divisible by 11 ,10 ,26 ,35</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  7, is divisible by 10 ,23 ,28 ,35</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  8, is divisible by 10 ,10 ,27 ,30</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  6, is divisible by 10 ,24 ,26 ,36</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  9, is divisible by 9 ,19 ,30 ,31</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  7, is divisible by 9 ,12 ,26 ,36</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  3, is divisible by 10 ,23 ,27 ,36</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  2, is divisible by 11 ,23 ,26 ,36</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  3, is divisible by 11 ,19 ,28 ,31</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  2, is divisible by 9 ,10 ,27 ,32</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  7, is divisible by 10 ,11 ,28 ,32</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  2, is divisible by 11 ,20 ,30 ,30</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  4, is divisible by 9 ,11 ,29 ,34</t>
+  </si>
+  <si>
+    <t>Which one of the following is the smallest number which when increased by  3, is divisible by 10 ,20 ,28 ,35</t>
+  </si>
+  <si>
     <t>Question SubType</t>
   </si>
   <si>
-    <t>TYPE_001</t>
-  </si>
-  <si>
-    <t>TYPE_002</t>
+    <t>TYPE-001</t>
+  </si>
+  <si>
+    <t>TYPE-002</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>LanguagesSupported</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>ENGLISH,HINDI</t>
+  </si>
+  <si>
+    <t>HINDI</t>
+  </si>
+  <si>
+    <t>&lt;EOQ&gt;</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 5, 20, 15, 20 and 20मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 12 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t>नहीं पता किया जा सकता हैं</t>
+  </si>
+  <si>
+    <t>इनमे से कोई नहीं</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 10, 20, 30, 10 and 15मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 62 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>7hrs</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 15, 10, 20, 15 and 25मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 42 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>9hrs</t>
+  </si>
+  <si>
+    <t>8 hrs</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 5, 20, 15, 15 and 25मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 122 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>17hrs</t>
+  </si>
+  <si>
+    <t>16 hrs</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 15, 20, 25, 10 and 20मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 22 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 10, 15, 30, 15 and 20मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 72 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
+  <si>
+    <t>7 hrs</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 15, 10, 15, 35 and 25मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 32 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>20.5hrs</t>
+  </si>
+  <si>
+    <t>19.5 hrs</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 5, 15, 15, 10 and 25मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 102 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>12.5hrs</t>
+  </si>
+  <si>
+    <t>11.5 hrs</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 10, 20, 25, 5 and 15मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 62 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>11hrs</t>
+  </si>
+  <si>
+    <t>10 hrs</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 15, 10, 15, 35 and 20मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 72 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
+  </si>
+  <si>
+    <t>14hrs</t>
+  </si>
+  <si>
+    <t>13 hrs</t>
+  </si>
+  <si>
+    <t>एक मंदिर में 5 घंटियाँ हैं जो क्रमशः 15, 15, 20, 35 and 15मिनट के अंतराल पर बजती हैं. यदि सभी घंटियाँ एक साथ 102 A.M पर बजी तो दोबारा सभी एक साथ कितने बजे फिर से बजेंगी?</t>
   </si>
 </sst>
 </file>
@@ -455,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -478,11 +733,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -492,6 +773,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,18 +1080,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1"/>
@@ -807,16 +1101,22 @@
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +1130,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -866,40 +1166,56 @@
         <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:43" ht="45">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -912,8 +1228,8 @@
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
+      <c r="E2" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -942,41 +1258,89 @@
       <c r="P2" s="2">
         <v>60</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AC2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -989,8 +1353,8 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
+      <c r="E3" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1023,9 +1387,13 @@
       <c r="P3" s="2">
         <v>60</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="4"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1034,419 +1402,3385 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+    </row>
+    <row r="4" spans="1:43" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="45">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" s="13">
+        <v>11392</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="8">
+        <v>11400</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="8">
+        <v>11396</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="13">
+        <v>87</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="8">
+        <v>93</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="8">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="9">
+        <v>80901</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="5">
+        <v>80919</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="5">
+        <v>80910</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="9">
+        <v>18014</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="5">
+        <v>18022</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" s="5">
+        <v>36036</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="9">
+        <v>9319</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="5">
+        <v>9329</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" s="5">
+        <v>46620</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="9">
+        <v>9855</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="5">
+        <v>9865</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="5">
+        <v>9860</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <v>5</v>
+      </c>
+      <c r="P14" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="9">
+        <v>186084</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="5">
+        <v>186102</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" s="5">
+        <v>186093</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T15" s="9">
+        <v>21277</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" s="5">
+        <v>21283</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" s="5">
+        <v>63840</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+      <c r="P16" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="9">
+        <v>22962</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" s="5">
+        <v>22974</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" s="5">
+        <v>22968</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="9">
+        <v>3355</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17" s="5">
+        <v>3365</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" s="5">
+        <v>3360</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="9">
+        <v>24</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="5">
+        <v>36</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
+        <v>5</v>
+      </c>
+      <c r="P19" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" s="9">
+        <v>658</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19" s="5">
+        <v>662</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" s="5">
+        <v>660</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2">
+        <v>5</v>
+      </c>
+      <c r="P20" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" s="9">
+        <v>67853</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="5">
+        <v>67867</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X20" s="5">
+        <v>475020</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T21" s="9">
+        <v>35415</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" s="5">
+        <v>35425</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21" s="5">
+        <v>35420</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
+        <v>5</v>
+      </c>
+      <c r="P22" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T22" s="9">
+        <v>26638</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="5">
+        <v>26642</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" s="5">
+        <v>26640</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2">
+        <v>5</v>
+      </c>
+      <c r="P23" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="9">
+        <v>10002</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="5">
+        <v>10018</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X23" s="5">
+        <v>40040</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+      <c r="P24" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T24" s="9">
+        <v>3213</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="5">
+        <v>3227</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X24" s="5">
+        <v>3220</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2">
+        <v>5</v>
+      </c>
+      <c r="P25" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" s="9">
+        <v>262</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="5">
+        <v>278</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X25" s="5">
+        <v>1080</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2">
+        <v>5</v>
+      </c>
+      <c r="P26" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" s="9">
+        <v>4674</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" s="5">
+        <v>4686</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X26" s="5">
+        <v>4680</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2">
+        <v>5</v>
+      </c>
+      <c r="P27" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T27" s="9">
+        <v>53001</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27" s="5">
+        <v>53019</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X27" s="5">
+        <v>53010</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2">
+        <v>5</v>
+      </c>
+      <c r="P28" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T28" s="9">
+        <v>461</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="5">
+        <v>475</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28" s="5">
+        <v>3276</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2">
+        <v>5</v>
+      </c>
+      <c r="P29" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T29" s="9">
+        <v>12417</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29" s="5">
+        <v>12423</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X29" s="5">
+        <v>12420</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2">
+        <v>5</v>
+      </c>
+      <c r="P30" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T30" s="9">
+        <v>118402</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30" s="5">
+        <v>118406</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30" s="5">
+        <v>118404</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2">
+        <v>5</v>
+      </c>
+      <c r="P31" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T31" s="9">
+        <v>181409</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" s="5">
+        <v>181415</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X31" s="5">
+        <v>544236</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2">
+        <v>5</v>
+      </c>
+      <c r="P32" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T32" s="9">
+        <v>4318</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32" s="5">
+        <v>4322</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X32" s="5">
+        <v>4320</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2">
+        <v>5</v>
+      </c>
+      <c r="P33" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S33" t="s">
+        <v>89</v>
+      </c>
+      <c r="T33" s="10">
+        <v>12313</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33">
+        <v>12327</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X33">
+        <v>12320</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2">
+        <v>5</v>
+      </c>
+      <c r="P34" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T34" s="9">
+        <v>658</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V34" s="5">
+        <v>662</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X34" s="5">
+        <v>660</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2">
+        <v>5</v>
+      </c>
+      <c r="P35" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T35" s="9">
+        <v>97610</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V35" s="5">
+        <v>97618</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X35" s="5">
+        <v>195228</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2">
+        <v>5</v>
+      </c>
+      <c r="P36" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T36" s="9">
+        <v>137</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" s="5">
+        <v>143</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X36" s="5">
+        <v>420</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2">
+        <v>5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T37" s="9">
+        <v>137</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V37" s="5">
+        <v>143</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X37" s="5">
+        <v>420</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="S38" s="5"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="U2 S2 W2 Y2 AA2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W2 AA4:AA37 W4:W37 Y4:Y37 U4:U37 AC2 AA2 Y2 U2 AJ2 AP2 AN2 AL2 AH2 AH4:AH9 AJ4:AJ9 AL4:AL9">
       <formula1>"CORRECT,INCORRECT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3"/>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C16 E2:E16 G2:G16 I2:I16 K2:K16 M2:M16">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D16 L7:L16 L3 W3 Q2 J2:J5 J7:J16 H2:H16 F2:F16 U2:U5 S2:S6 Q4:Q6 O6 N7:N16">
       <formula1>"CORRECT,INCORRECT"</formula1>
     </dataValidation>
   </dataValidations>
